--- a/lab-01/car_data.xlsx
+++ b/lab-01/car_data.xlsx
@@ -705,16 +705,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>88</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>168</v>
+        <v>168.8</v>
       </c>
       <c r="D2" t="n">
-        <v>64</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
+        <v>48.8</v>
       </c>
       <c r="F2" t="n">
         <v>2548</v>
@@ -723,10 +723,10 @@
         <v>130</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.47</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="J2" t="n">
         <v>9</v>
@@ -866,16 +866,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>88</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>168</v>
+        <v>168.8</v>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>48.8</v>
       </c>
       <c r="F3" t="n">
         <v>2548</v>
@@ -884,10 +884,10 @@
         <v>130</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.47</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="J3" t="n">
         <v>9</v>
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C4" t="n">
-        <v>171</v>
+        <v>171.2</v>
       </c>
       <c r="D4" t="n">
-        <v>65</v>
+        <v>65.5</v>
       </c>
       <c r="E4" t="n">
-        <v>52</v>
+        <v>52.4</v>
       </c>
       <c r="F4" t="n">
         <v>2823</v>
@@ -1045,10 +1045,10 @@
         <v>152</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>3.47</v>
       </c>
       <c r="J4" t="n">
         <v>9</v>
@@ -1188,16 +1188,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="C5" t="n">
-        <v>176</v>
+        <v>176.6</v>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>66.2</v>
       </c>
       <c r="E5" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="F5" t="n">
         <v>2337</v>
@@ -1206,10 +1206,10 @@
         <v>109</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
         <v>10</v>
@@ -1349,16 +1349,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>176</v>
+        <v>176.6</v>
       </c>
       <c r="D6" t="n">
-        <v>66</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="F6" t="n">
         <v>2824</v>
@@ -1367,10 +1367,10 @@
         <v>136</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
         <v>8</v>
@@ -1510,16 +1510,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="C7" t="n">
-        <v>177</v>
+        <v>177.3</v>
       </c>
       <c r="D7" t="n">
-        <v>66</v>
+        <v>66.3</v>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="F7" t="n">
         <v>2507</v>
@@ -1528,13 +1528,13 @@
         <v>136</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K7" t="n">
         <v>110</v>
@@ -1671,16 +1671,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>105</v>
+        <v>105.8</v>
       </c>
       <c r="C8" t="n">
-        <v>192</v>
+        <v>192.7</v>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>55.7</v>
       </c>
       <c r="F8" t="n">
         <v>2844</v>
@@ -1689,13 +1689,13 @@
         <v>136</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K8" t="n">
         <v>110</v>
@@ -1832,16 +1832,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>105</v>
+        <v>105.8</v>
       </c>
       <c r="C9" t="n">
-        <v>192</v>
+        <v>192.7</v>
       </c>
       <c r="D9" t="n">
-        <v>71</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>55</v>
+        <v>55.7</v>
       </c>
       <c r="F9" t="n">
         <v>2954</v>
@@ -1850,13 +1850,13 @@
         <v>136</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K9" t="n">
         <v>110</v>
@@ -1993,16 +1993,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>105</v>
+        <v>105.8</v>
       </c>
       <c r="C10" t="n">
-        <v>192</v>
+        <v>192.7</v>
       </c>
       <c r="D10" t="n">
-        <v>71</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="F10" t="n">
         <v>3086</v>
@@ -2011,13 +2011,13 @@
         <v>131</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>140</v>
@@ -2154,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="C11" t="n">
-        <v>178</v>
+        <v>178.2</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>52</v>
@@ -2172,10 +2172,10 @@
         <v>131</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
         <v>7</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>17859</v>
+        <v>17859.167</v>
       </c>
     </row>
     <row r="12">
@@ -2315,16 +2315,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>101</v>
+        <v>101.2</v>
       </c>
       <c r="C12" t="n">
-        <v>176</v>
+        <v>176.8</v>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>64.8</v>
       </c>
       <c r="E12" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="F12" t="n">
         <v>2395</v>
@@ -2333,13 +2333,13 @@
         <v>108</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>101</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>101</v>
+        <v>101.2</v>
       </c>
       <c r="C13" t="n">
-        <v>176</v>
+        <v>176.8</v>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>64.8</v>
       </c>
       <c r="E13" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="F13" t="n">
         <v>2395</v>
@@ -2494,13 +2494,13 @@
         <v>108</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K13" t="n">
         <v>101</v>
@@ -2637,16 +2637,16 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>101</v>
+        <v>101.2</v>
       </c>
       <c r="C14" t="n">
-        <v>176</v>
+        <v>176.8</v>
       </c>
       <c r="D14" t="n">
-        <v>64</v>
+        <v>64.8</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="F14" t="n">
         <v>2710</v>
@@ -2655,10 +2655,10 @@
         <v>164</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="J14" t="n">
         <v>9</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>101</v>
+        <v>101.2</v>
       </c>
       <c r="C15" t="n">
-        <v>176</v>
+        <v>176.8</v>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>64.8</v>
       </c>
       <c r="E15" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="F15" t="n">
         <v>2765</v>
@@ -2816,10 +2816,10 @@
         <v>164</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="J15" t="n">
         <v>9</v>
@@ -2959,16 +2959,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>103</v>
+        <v>103.5</v>
       </c>
       <c r="C16" t="n">
         <v>189</v>
       </c>
       <c r="D16" t="n">
-        <v>66</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>55</v>
+        <v>55.7</v>
       </c>
       <c r="F16" t="n">
         <v>3055</v>
@@ -2977,10 +2977,10 @@
         <v>164</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="J16" t="n">
         <v>9</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>103</v>
+        <v>103.5</v>
       </c>
       <c r="C17" t="n">
         <v>189</v>
       </c>
       <c r="D17" t="n">
-        <v>66</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>55</v>
+        <v>55.7</v>
       </c>
       <c r="F17" t="n">
         <v>3230</v>
@@ -3138,10 +3138,10 @@
         <v>209</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="J17" t="n">
         <v>8</v>
@@ -3281,16 +3281,16 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>103</v>
+        <v>103.5</v>
       </c>
       <c r="C18" t="n">
-        <v>193</v>
+        <v>193.8</v>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="F18" t="n">
         <v>3380</v>
@@ -3299,10 +3299,10 @@
         <v>209</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="J18" t="n">
         <v>8</v>
@@ -3448,10 +3448,10 @@
         <v>197</v>
       </c>
       <c r="D19" t="n">
-        <v>70</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>56</v>
+        <v>56.3</v>
       </c>
       <c r="F19" t="n">
         <v>3505</v>
@@ -3460,10 +3460,10 @@
         <v>209</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="J19" t="n">
         <v>8</v>
@@ -3603,16 +3603,16 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>88</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>141</v>
+        <v>141.1</v>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>60.3</v>
       </c>
       <c r="E20" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="F20" t="n">
         <v>1488</v>
@@ -3621,13 +3621,13 @@
         <v>61</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>2.91</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="J20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K20" t="n">
         <v>48</v>
@@ -3764,13 +3764,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C21" t="n">
-        <v>155</v>
+        <v>155.9</v>
       </c>
       <c r="D21" t="n">
-        <v>63</v>
+        <v>63.6</v>
       </c>
       <c r="E21" t="n">
         <v>52</v>
@@ -3782,13 +3782,13 @@
         <v>90</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="J21" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="K21" t="n">
         <v>70</v>
@@ -3925,13 +3925,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C22" t="n">
-        <v>158</v>
+        <v>158.8</v>
       </c>
       <c r="D22" t="n">
-        <v>63</v>
+        <v>63.6</v>
       </c>
       <c r="E22" t="n">
         <v>52</v>
@@ -3943,13 +3943,13 @@
         <v>90</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="J22" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="K22" t="n">
         <v>70</v>
@@ -4086,16 +4086,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C23" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D23" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E23" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="F23" t="n">
         <v>1876</v>
@@ -4104,13 +4104,13 @@
         <v>90</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>2.97</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="J23" t="n">
-        <v>9</v>
+        <v>9.41</v>
       </c>
       <c r="K23" t="n">
         <v>68</v>
@@ -4247,16 +4247,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C24" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D24" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E24" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="F24" t="n">
         <v>1876</v>
@@ -4265,13 +4265,13 @@
         <v>90</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>2.97</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K24" t="n">
         <v>68</v>
@@ -4408,16 +4408,16 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C25" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D25" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E25" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="F25" t="n">
         <v>2128</v>
@@ -4426,13 +4426,13 @@
         <v>98</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="K25" t="n">
         <v>102</v>
@@ -4569,16 +4569,16 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C26" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D26" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>50.6</v>
       </c>
       <c r="F26" t="n">
         <v>1967</v>
@@ -4587,13 +4587,13 @@
         <v>90</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>2.97</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="J26" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K26" t="n">
         <v>68</v>
@@ -4730,16 +4730,16 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C27" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D27" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E27" t="n">
-        <v>50</v>
+        <v>50.6</v>
       </c>
       <c r="F27" t="n">
         <v>1989</v>
@@ -4748,13 +4748,13 @@
         <v>90</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>2.97</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="J27" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K27" t="n">
         <v>68</v>
@@ -4891,16 +4891,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C28" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D28" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>50.6</v>
       </c>
       <c r="F28" t="n">
         <v>1989</v>
@@ -4909,13 +4909,13 @@
         <v>90</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>2.97</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="J28" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K28" t="n">
         <v>68</v>
@@ -5052,16 +5052,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C29" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D29" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
+        <v>50.6</v>
       </c>
       <c r="F29" t="n">
         <v>2191</v>
@@ -5070,13 +5070,13 @@
         <v>98</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="K29" t="n">
         <v>102</v>
@@ -5213,16 +5213,16 @@
         <v>-1</v>
       </c>
       <c r="B30" t="n">
-        <v>103</v>
+        <v>103.3</v>
       </c>
       <c r="C30" t="n">
-        <v>174</v>
+        <v>174.6</v>
       </c>
       <c r="D30" t="n">
-        <v>64</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>59</v>
+        <v>59.8</v>
       </c>
       <c r="F30" t="n">
         <v>2535</v>
@@ -5231,13 +5231,13 @@
         <v>122</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>3.34</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="J30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K30" t="n">
         <v>88</v>
@@ -5374,16 +5374,16 @@
         <v>3</v>
       </c>
       <c r="B31" t="n">
-        <v>95</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>173</v>
+        <v>173.2</v>
       </c>
       <c r="D31" t="n">
-        <v>66</v>
+        <v>66.3</v>
       </c>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="F31" t="n">
         <v>2811</v>
@@ -5392,10 +5392,10 @@
         <v>156</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="n">
         <v>7</v>
@@ -5535,16 +5535,16 @@
         <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>86</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>144</v>
+        <v>144.6</v>
       </c>
       <c r="D32" t="n">
-        <v>63</v>
+        <v>63.9</v>
       </c>
       <c r="E32" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="F32" t="n">
         <v>1713</v>
@@ -5553,13 +5553,13 @@
         <v>92</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>2.91</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>3.41</v>
       </c>
       <c r="J32" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="K32" t="n">
         <v>58</v>
@@ -5696,16 +5696,16 @@
         <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>86</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>144</v>
+        <v>144.6</v>
       </c>
       <c r="D33" t="n">
-        <v>63</v>
+        <v>63.9</v>
       </c>
       <c r="E33" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="F33" t="n">
         <v>1819</v>
@@ -5714,13 +5714,13 @@
         <v>92</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>2.91</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>3.41</v>
       </c>
       <c r="J33" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K33" t="n">
         <v>76</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C34" t="n">
         <v>150</v>
@@ -5866,7 +5866,7 @@
         <v>64</v>
       </c>
       <c r="E34" t="n">
-        <v>52</v>
+        <v>52.6</v>
       </c>
       <c r="F34" t="n">
         <v>1837</v>
@@ -5875,13 +5875,13 @@
         <v>79</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>2.91</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="J34" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="K34" t="n">
         <v>60</v>
@@ -6018,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C35" t="n">
         <v>150</v>
@@ -6027,7 +6027,7 @@
         <v>64</v>
       </c>
       <c r="E35" t="n">
-        <v>52</v>
+        <v>52.6</v>
       </c>
       <c r="F35" t="n">
         <v>1940</v>
@@ -6036,13 +6036,13 @@
         <v>92</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>2.91</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>3.41</v>
       </c>
       <c r="J35" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K35" t="n">
         <v>76</v>
@@ -6179,7 +6179,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C36" t="n">
         <v>150</v>
@@ -6188,7 +6188,7 @@
         <v>64</v>
       </c>
       <c r="E36" t="n">
-        <v>52</v>
+        <v>52.6</v>
       </c>
       <c r="F36" t="n">
         <v>1956</v>
@@ -6197,13 +6197,13 @@
         <v>92</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>2.91</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>3.41</v>
       </c>
       <c r="J36" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K36" t="n">
         <v>76</v>
@@ -6340,16 +6340,16 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="C37" t="n">
-        <v>163</v>
+        <v>163.4</v>
       </c>
       <c r="D37" t="n">
         <v>64</v>
       </c>
       <c r="E37" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F37" t="n">
         <v>2010</v>
@@ -6358,13 +6358,13 @@
         <v>92</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>2.91</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>3.41</v>
       </c>
       <c r="J37" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K37" t="n">
         <v>76</v>
@@ -6501,16 +6501,16 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="C38" t="n">
-        <v>157</v>
+        <v>157.1</v>
       </c>
       <c r="D38" t="n">
-        <v>63</v>
+        <v>63.9</v>
       </c>
       <c r="E38" t="n">
-        <v>58</v>
+        <v>58.3</v>
       </c>
       <c r="F38" t="n">
         <v>2024</v>
@@ -6519,13 +6519,13 @@
         <v>92</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>2.92</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>3.41</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K38" t="n">
         <v>76</v>
@@ -6662,16 +6662,16 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="C39" t="n">
-        <v>167</v>
+        <v>167.5</v>
       </c>
       <c r="D39" t="n">
-        <v>65</v>
+        <v>65.2</v>
       </c>
       <c r="E39" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="F39" t="n">
         <v>2236</v>
@@ -6680,10 +6680,10 @@
         <v>110</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>3.58</v>
       </c>
       <c r="J39" t="n">
         <v>9</v>
@@ -6823,16 +6823,16 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="C40" t="n">
-        <v>167</v>
+        <v>167.5</v>
       </c>
       <c r="D40" t="n">
-        <v>65</v>
+        <v>65.2</v>
       </c>
       <c r="E40" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="F40" t="n">
         <v>2289</v>
@@ -6841,10 +6841,10 @@
         <v>110</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>3.58</v>
       </c>
       <c r="J40" t="n">
         <v>9</v>
@@ -6984,16 +6984,16 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="C41" t="n">
-        <v>175</v>
+        <v>175.4</v>
       </c>
       <c r="D41" t="n">
-        <v>65</v>
+        <v>65.2</v>
       </c>
       <c r="E41" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F41" t="n">
         <v>2304</v>
@@ -7002,10 +7002,10 @@
         <v>110</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>3.58</v>
       </c>
       <c r="J41" t="n">
         <v>9</v>
@@ -7145,16 +7145,16 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="C42" t="n">
-        <v>175</v>
+        <v>175.4</v>
       </c>
       <c r="D42" t="n">
-        <v>62</v>
+        <v>62.5</v>
       </c>
       <c r="E42" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F42" t="n">
         <v>2372</v>
@@ -7163,10 +7163,10 @@
         <v>110</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>3.58</v>
       </c>
       <c r="J42" t="n">
         <v>9</v>
@@ -7306,16 +7306,16 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="C43" t="n">
-        <v>175</v>
+        <v>175.4</v>
       </c>
       <c r="D43" t="n">
-        <v>65</v>
+        <v>65.2</v>
       </c>
       <c r="E43" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F43" t="n">
         <v>2465</v>
@@ -7324,10 +7324,10 @@
         <v>110</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>3.58</v>
       </c>
       <c r="J43" t="n">
         <v>9</v>
@@ -7467,10 +7467,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="C44" t="n">
-        <v>169</v>
+        <v>169.1</v>
       </c>
       <c r="D44" t="n">
         <v>66</v>
@@ -7485,13 +7485,13 @@
         <v>110</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>3.58</v>
       </c>
       <c r="J44" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="K44" t="n">
         <v>100</v>
@@ -7628,16 +7628,16 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>94</v>
+        <v>94.3</v>
       </c>
       <c r="C45" t="n">
-        <v>170</v>
+        <v>170.7</v>
       </c>
       <c r="D45" t="n">
-        <v>61</v>
+        <v>61.8</v>
       </c>
       <c r="E45" t="n">
-        <v>53</v>
+        <v>53.5</v>
       </c>
       <c r="F45" t="n">
         <v>2337</v>
@@ -7646,13 +7646,13 @@
         <v>111</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="J45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K45" t="n">
         <v>78</v>
@@ -7789,13 +7789,13 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C46" t="n">
-        <v>155</v>
+        <v>155.9</v>
       </c>
       <c r="D46" t="n">
-        <v>63</v>
+        <v>63.6</v>
       </c>
       <c r="E46" t="n">
         <v>52</v>
@@ -7807,13 +7807,13 @@
         <v>90</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="J46" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="K46" t="n">
         <v>70</v>
@@ -7942,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="BA46" t="n">
-        <v>8916</v>
+        <v>8916.5</v>
       </c>
     </row>
     <row r="47">
@@ -7950,13 +7950,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C47" t="n">
-        <v>155</v>
+        <v>155.9</v>
       </c>
       <c r="D47" t="n">
-        <v>63</v>
+        <v>63.6</v>
       </c>
       <c r="E47" t="n">
         <v>52</v>
@@ -7968,13 +7968,13 @@
         <v>90</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="J47" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="K47" t="n">
         <v>70</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="BA47" t="n">
-        <v>8916</v>
+        <v>8916.5</v>
       </c>
     </row>
     <row r="48">
@@ -8114,13 +8114,13 @@
         <v>96</v>
       </c>
       <c r="C48" t="n">
-        <v>172</v>
+        <v>172.6</v>
       </c>
       <c r="D48" t="n">
-        <v>65</v>
+        <v>65.2</v>
       </c>
       <c r="E48" t="n">
-        <v>51</v>
+        <v>51.4</v>
       </c>
       <c r="F48" t="n">
         <v>2734</v>
@@ -8129,13 +8129,13 @@
         <v>119</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="J48" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K48" t="n">
         <v>90</v>
@@ -8275,13 +8275,13 @@
         <v>113</v>
       </c>
       <c r="C49" t="n">
-        <v>199</v>
+        <v>199.6</v>
       </c>
       <c r="D49" t="n">
-        <v>69</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>52</v>
+        <v>52.8</v>
       </c>
       <c r="F49" t="n">
         <v>4066</v>
@@ -8290,13 +8290,13 @@
         <v>258</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>3.63</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>4.17</v>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="K49" t="n">
         <v>176</v>
@@ -8436,13 +8436,13 @@
         <v>113</v>
       </c>
       <c r="C50" t="n">
-        <v>199</v>
+        <v>199.6</v>
       </c>
       <c r="D50" t="n">
-        <v>69</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>52</v>
+        <v>52.8</v>
       </c>
       <c r="F50" t="n">
         <v>4066</v>
@@ -8451,13 +8451,13 @@
         <v>258</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>3.63</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>4.17</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="K50" t="n">
         <v>176</v>
@@ -8597,13 +8597,13 @@
         <v>102</v>
       </c>
       <c r="C51" t="n">
-        <v>191</v>
+        <v>191.7</v>
       </c>
       <c r="D51" t="n">
-        <v>70</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>47</v>
+        <v>47.8</v>
       </c>
       <c r="F51" t="n">
         <v>3950</v>
@@ -8612,13 +8612,13 @@
         <v>326</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>3.54</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>2.76</v>
       </c>
       <c r="J51" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="K51" t="n">
         <v>262</v>
@@ -8755,16 +8755,16 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>159</v>
+        <v>159.1</v>
       </c>
       <c r="D52" t="n">
-        <v>64</v>
+        <v>64.2</v>
       </c>
       <c r="E52" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F52" t="n">
         <v>1890</v>
@@ -8773,10 +8773,10 @@
         <v>91</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J52" t="n">
         <v>9</v>
@@ -8916,16 +8916,16 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>159</v>
+        <v>159.1</v>
       </c>
       <c r="D53" t="n">
-        <v>64</v>
+        <v>64.2</v>
       </c>
       <c r="E53" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F53" t="n">
         <v>1900</v>
@@ -8934,10 +8934,10 @@
         <v>91</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J53" t="n">
         <v>9</v>
@@ -9077,16 +9077,16 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>159</v>
+        <v>159.1</v>
       </c>
       <c r="D54" t="n">
-        <v>64</v>
+        <v>64.2</v>
       </c>
       <c r="E54" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F54" t="n">
         <v>1905</v>
@@ -9095,10 +9095,10 @@
         <v>91</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J54" t="n">
         <v>9</v>
@@ -9238,16 +9238,16 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>166</v>
+        <v>166.8</v>
       </c>
       <c r="D55" t="n">
-        <v>64</v>
+        <v>64.2</v>
       </c>
       <c r="E55" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F55" t="n">
         <v>1945</v>
@@ -9256,10 +9256,10 @@
         <v>91</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J55" t="n">
         <v>9</v>
@@ -9399,16 +9399,16 @@
         <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>166</v>
+        <v>166.8</v>
       </c>
       <c r="D56" t="n">
-        <v>64</v>
+        <v>64.2</v>
       </c>
       <c r="E56" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F56" t="n">
         <v>1950</v>
@@ -9417,10 +9417,10 @@
         <v>91</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J56" t="n">
         <v>9</v>
@@ -9560,16 +9560,16 @@
         <v>3</v>
       </c>
       <c r="B57" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="C57" t="n">
         <v>169</v>
       </c>
       <c r="D57" t="n">
-        <v>65</v>
+        <v>65.7</v>
       </c>
       <c r="E57" t="n">
-        <v>49</v>
+        <v>49.6</v>
       </c>
       <c r="F57" t="n">
         <v>2380</v>
@@ -9578,13 +9578,13 @@
         <v>70</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>3.33</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>3.255</v>
       </c>
       <c r="J57" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K57" t="n">
         <v>101</v>
@@ -9721,16 +9721,16 @@
         <v>3</v>
       </c>
       <c r="B58" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="C58" t="n">
         <v>169</v>
       </c>
       <c r="D58" t="n">
-        <v>65</v>
+        <v>65.7</v>
       </c>
       <c r="E58" t="n">
-        <v>49</v>
+        <v>49.6</v>
       </c>
       <c r="F58" t="n">
         <v>2380</v>
@@ -9739,13 +9739,13 @@
         <v>70</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>3.33</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>3.255</v>
       </c>
       <c r="J58" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K58" t="n">
         <v>101</v>
@@ -9882,16 +9882,16 @@
         <v>3</v>
       </c>
       <c r="B59" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="C59" t="n">
         <v>169</v>
       </c>
       <c r="D59" t="n">
-        <v>65</v>
+        <v>65.7</v>
       </c>
       <c r="E59" t="n">
-        <v>49</v>
+        <v>49.6</v>
       </c>
       <c r="F59" t="n">
         <v>2385</v>
@@ -9900,13 +9900,13 @@
         <v>70</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>3.33</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>3.255</v>
       </c>
       <c r="J59" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K59" t="n">
         <v>101</v>
@@ -10043,16 +10043,16 @@
         <v>3</v>
       </c>
       <c r="B60" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="C60" t="n">
         <v>169</v>
       </c>
       <c r="D60" t="n">
-        <v>65</v>
+        <v>65.7</v>
       </c>
       <c r="E60" t="n">
-        <v>49</v>
+        <v>49.6</v>
       </c>
       <c r="F60" t="n">
         <v>2500</v>
@@ -10061,13 +10061,13 @@
         <v>80</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>3.33</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>3.255</v>
       </c>
       <c r="J60" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K60" t="n">
         <v>135</v>
@@ -10204,16 +10204,16 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>98</v>
+        <v>98.8</v>
       </c>
       <c r="C61" t="n">
-        <v>177</v>
+        <v>177.8</v>
       </c>
       <c r="D61" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E61" t="n">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="F61" t="n">
         <v>2385</v>
@@ -10222,13 +10222,13 @@
         <v>122</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="J61" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="K61" t="n">
         <v>84</v>
@@ -10365,16 +10365,16 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>98</v>
+        <v>98.8</v>
       </c>
       <c r="C62" t="n">
-        <v>177</v>
+        <v>177.8</v>
       </c>
       <c r="D62" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E62" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="F62" t="n">
         <v>2410</v>
@@ -10383,13 +10383,13 @@
         <v>122</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="J62" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="K62" t="n">
         <v>84</v>
@@ -10526,16 +10526,16 @@
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>98</v>
+        <v>98.8</v>
       </c>
       <c r="C63" t="n">
-        <v>177</v>
+        <v>177.8</v>
       </c>
       <c r="D63" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E63" t="n">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="F63" t="n">
         <v>2385</v>
@@ -10544,13 +10544,13 @@
         <v>122</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="J63" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="K63" t="n">
         <v>84</v>
@@ -10687,16 +10687,16 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>98</v>
+        <v>98.8</v>
       </c>
       <c r="C64" t="n">
-        <v>177</v>
+        <v>177.8</v>
       </c>
       <c r="D64" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E64" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="F64" t="n">
         <v>2410</v>
@@ -10705,13 +10705,13 @@
         <v>122</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="J64" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="K64" t="n">
         <v>84</v>
@@ -10848,16 +10848,16 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>98</v>
+        <v>98.8</v>
       </c>
       <c r="C65" t="n">
-        <v>177</v>
+        <v>177.8</v>
       </c>
       <c r="D65" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E65" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="F65" t="n">
         <v>2443</v>
@@ -10866,13 +10866,13 @@
         <v>122</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="J65" t="n">
-        <v>22</v>
+        <v>22.7</v>
       </c>
       <c r="K65" t="n">
         <v>64</v>
@@ -11009,16 +11009,16 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>98</v>
+        <v>98.8</v>
       </c>
       <c r="C66" t="n">
-        <v>177</v>
+        <v>177.8</v>
       </c>
       <c r="D66" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E66" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="F66" t="n">
         <v>2425</v>
@@ -11027,13 +11027,13 @@
         <v>122</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="J66" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="K66" t="n">
         <v>84</v>
@@ -11170,16 +11170,16 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>104</v>
+        <v>104.9</v>
       </c>
       <c r="C67" t="n">
         <v>175</v>
       </c>
       <c r="D67" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="F67" t="n">
         <v>2670</v>
@@ -11188,10 +11188,10 @@
         <v>140</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>3.76</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>3.16</v>
       </c>
       <c r="J67" t="n">
         <v>8</v>
@@ -11331,16 +11331,16 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>104</v>
+        <v>104.9</v>
       </c>
       <c r="C68" t="n">
         <v>175</v>
       </c>
       <c r="D68" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="F68" t="n">
         <v>2700</v>
@@ -11349,10 +11349,10 @@
         <v>134</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>3.64</v>
       </c>
       <c r="J68" t="n">
         <v>22</v>
@@ -11495,13 +11495,13 @@
         <v>110</v>
       </c>
       <c r="C69" t="n">
-        <v>190</v>
+        <v>190.9</v>
       </c>
       <c r="D69" t="n">
-        <v>70</v>
+        <v>70.3</v>
       </c>
       <c r="E69" t="n">
-        <v>56</v>
+        <v>56.5</v>
       </c>
       <c r="F69" t="n">
         <v>3515</v>
@@ -11510,13 +11510,13 @@
         <v>183</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>3.58</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>3.64</v>
       </c>
       <c r="J69" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="K69" t="n">
         <v>123</v>
@@ -11656,13 +11656,13 @@
         <v>110</v>
       </c>
       <c r="C70" t="n">
-        <v>190</v>
+        <v>190.9</v>
       </c>
       <c r="D70" t="n">
-        <v>70</v>
+        <v>70.3</v>
       </c>
       <c r="E70" t="n">
-        <v>58</v>
+        <v>58.7</v>
       </c>
       <c r="F70" t="n">
         <v>3750</v>
@@ -11671,13 +11671,13 @@
         <v>183</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>3.58</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>3.64</v>
       </c>
       <c r="J70" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="K70" t="n">
         <v>123</v>
@@ -11814,16 +11814,16 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>106</v>
+        <v>106.7</v>
       </c>
       <c r="C71" t="n">
-        <v>187</v>
+        <v>187.5</v>
       </c>
       <c r="D71" t="n">
-        <v>70</v>
+        <v>70.3</v>
       </c>
       <c r="E71" t="n">
-        <v>54</v>
+        <v>54.9</v>
       </c>
       <c r="F71" t="n">
         <v>3495</v>
@@ -11832,13 +11832,13 @@
         <v>183</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>3.58</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>3.64</v>
       </c>
       <c r="J71" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="K71" t="n">
         <v>123</v>
@@ -11975,16 +11975,16 @@
         <v>-1</v>
       </c>
       <c r="B72" t="n">
-        <v>115</v>
+        <v>115.6</v>
       </c>
       <c r="C72" t="n">
-        <v>202</v>
+        <v>202.6</v>
       </c>
       <c r="D72" t="n">
-        <v>71</v>
+        <v>71.7</v>
       </c>
       <c r="E72" t="n">
-        <v>56</v>
+        <v>56.3</v>
       </c>
       <c r="F72" t="n">
         <v>3770</v>
@@ -11993,13 +11993,13 @@
         <v>183</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>3.58</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>3.64</v>
       </c>
       <c r="J72" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="K72" t="n">
         <v>123</v>
@@ -12136,16 +12136,16 @@
         <v>-1</v>
       </c>
       <c r="B73" t="n">
-        <v>115</v>
+        <v>115.6</v>
       </c>
       <c r="C73" t="n">
-        <v>202</v>
+        <v>202.6</v>
       </c>
       <c r="D73" t="n">
-        <v>71</v>
+        <v>71.7</v>
       </c>
       <c r="E73" t="n">
-        <v>56</v>
+        <v>56.5</v>
       </c>
       <c r="F73" t="n">
         <v>3740</v>
@@ -12154,13 +12154,13 @@
         <v>234</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J73" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K73" t="n">
         <v>155</v>
@@ -12297,16 +12297,16 @@
         <v>3</v>
       </c>
       <c r="B74" t="n">
-        <v>96</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>180</v>
+        <v>180.3</v>
       </c>
       <c r="D74" t="n">
-        <v>70</v>
+        <v>70.5</v>
       </c>
       <c r="E74" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="F74" t="n">
         <v>3685</v>
@@ -12315,13 +12315,13 @@
         <v>234</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J74" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K74" t="n">
         <v>155</v>
@@ -12458,16 +12458,16 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>120</v>
+        <v>120.9</v>
       </c>
       <c r="C75" t="n">
-        <v>208</v>
+        <v>208.1</v>
       </c>
       <c r="D75" t="n">
-        <v>71</v>
+        <v>71.7</v>
       </c>
       <c r="E75" t="n">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="F75" t="n">
         <v>3900</v>
@@ -12476,10 +12476,10 @@
         <v>308</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="J75" t="n">
         <v>8</v>
@@ -12622,13 +12622,13 @@
         <v>112</v>
       </c>
       <c r="C76" t="n">
-        <v>199</v>
+        <v>199.2</v>
       </c>
       <c r="D76" t="n">
         <v>72</v>
       </c>
       <c r="E76" t="n">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="F76" t="n">
         <v>3715</v>
@@ -12637,10 +12637,10 @@
         <v>304</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="J76" t="n">
         <v>8</v>
@@ -12780,16 +12780,16 @@
         <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>102</v>
+        <v>102.7</v>
       </c>
       <c r="C77" t="n">
-        <v>178</v>
+        <v>178.4</v>
       </c>
       <c r="D77" t="n">
         <v>68</v>
       </c>
       <c r="E77" t="n">
-        <v>54</v>
+        <v>54.8</v>
       </c>
       <c r="F77" t="n">
         <v>2910</v>
@@ -12798,10 +12798,10 @@
         <v>140</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>3.78</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="J77" t="n">
         <v>8</v>
@@ -12941,16 +12941,16 @@
         <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C78" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D78" t="n">
-        <v>64</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="F78" t="n">
         <v>1918</v>
@@ -12959,13 +12959,13 @@
         <v>92</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>2.97</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="J78" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K78" t="n">
         <v>68</v>
@@ -13102,16 +13102,16 @@
         <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C79" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D79" t="n">
-        <v>64</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="F79" t="n">
         <v>1944</v>
@@ -13120,13 +13120,13 @@
         <v>92</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>2.97</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="J79" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K79" t="n">
         <v>68</v>
@@ -13263,16 +13263,16 @@
         <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C80" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D80" t="n">
-        <v>64</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="F80" t="n">
         <v>2004</v>
@@ -13281,13 +13281,13 @@
         <v>92</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>2.97</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="J80" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K80" t="n">
         <v>68</v>
@@ -13427,13 +13427,13 @@
         <v>93</v>
       </c>
       <c r="C81" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D81" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E81" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="F81" t="n">
         <v>2145</v>
@@ -13442,13 +13442,13 @@
         <v>98</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="J81" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="K81" t="n">
         <v>102</v>
@@ -13585,16 +13585,16 @@
         <v>3</v>
       </c>
       <c r="B82" t="n">
-        <v>96</v>
+        <v>96.3</v>
       </c>
       <c r="C82" t="n">
         <v>173</v>
       </c>
       <c r="D82" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>49</v>
+        <v>49.4</v>
       </c>
       <c r="F82" t="n">
         <v>2370</v>
@@ -13603,13 +13603,13 @@
         <v>110</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="J82" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K82" t="n">
         <v>116</v>
@@ -13746,16 +13746,16 @@
         <v>3</v>
       </c>
       <c r="B83" t="n">
-        <v>96</v>
+        <v>96.3</v>
       </c>
       <c r="C83" t="n">
         <v>173</v>
       </c>
       <c r="D83" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>49</v>
+        <v>49.4</v>
       </c>
       <c r="F83" t="n">
         <v>2328</v>
@@ -13764,13 +13764,13 @@
         <v>122</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="J83" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K83" t="n">
         <v>88</v>
@@ -13907,16 +13907,16 @@
         <v>3</v>
       </c>
       <c r="B84" t="n">
-        <v>95</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>173</v>
+        <v>173.2</v>
       </c>
       <c r="D84" t="n">
-        <v>66</v>
+        <v>66.3</v>
       </c>
       <c r="E84" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="F84" t="n">
         <v>2833</v>
@@ -13925,10 +13925,10 @@
         <v>156</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>3.58</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>3.86</v>
       </c>
       <c r="J84" t="n">
         <v>7</v>
@@ -14068,16 +14068,16 @@
         <v>3</v>
       </c>
       <c r="B85" t="n">
-        <v>95</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>173</v>
+        <v>173.2</v>
       </c>
       <c r="D85" t="n">
-        <v>66</v>
+        <v>66.3</v>
       </c>
       <c r="E85" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="F85" t="n">
         <v>2921</v>
@@ -14086,10 +14086,10 @@
         <v>156</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>3.59</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>3.86</v>
       </c>
       <c r="J85" t="n">
         <v>7</v>
@@ -14229,16 +14229,16 @@
         <v>3</v>
       </c>
       <c r="B86" t="n">
-        <v>95</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>173</v>
+        <v>173.2</v>
       </c>
       <c r="D86" t="n">
-        <v>66</v>
+        <v>66.3</v>
       </c>
       <c r="E86" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="F86" t="n">
         <v>2926</v>
@@ -14247,10 +14247,10 @@
         <v>156</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>3.59</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>3.86</v>
       </c>
       <c r="J86" t="n">
         <v>7</v>
@@ -14390,16 +14390,16 @@
         <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>96</v>
+        <v>96.3</v>
       </c>
       <c r="C87" t="n">
-        <v>172</v>
+        <v>172.4</v>
       </c>
       <c r="D87" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="F87" t="n">
         <v>2365</v>
@@ -14408,13 +14408,13 @@
         <v>122</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="J87" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K87" t="n">
         <v>88</v>
@@ -14551,16 +14551,16 @@
         <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>96</v>
+        <v>96.3</v>
       </c>
       <c r="C88" t="n">
-        <v>172</v>
+        <v>172.4</v>
       </c>
       <c r="D88" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="F88" t="n">
         <v>2405</v>
@@ -14569,13 +14569,13 @@
         <v>122</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="J88" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K88" t="n">
         <v>88</v>
@@ -14712,16 +14712,16 @@
         <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>96</v>
+        <v>96.3</v>
       </c>
       <c r="C89" t="n">
-        <v>172</v>
+        <v>172.4</v>
       </c>
       <c r="D89" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="F89" t="n">
         <v>2403</v>
@@ -14730,13 +14730,13 @@
         <v>110</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="J89" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K89" t="n">
         <v>116</v>
@@ -14873,16 +14873,16 @@
         <v>-1</v>
       </c>
       <c r="B90" t="n">
-        <v>96</v>
+        <v>96.3</v>
       </c>
       <c r="C90" t="n">
-        <v>172</v>
+        <v>172.4</v>
       </c>
       <c r="D90" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="F90" t="n">
         <v>2403</v>
@@ -14891,13 +14891,13 @@
         <v>110</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="J90" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K90" t="n">
         <v>116</v>
@@ -15034,16 +15034,16 @@
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C91" t="n">
-        <v>165</v>
+        <v>165.3</v>
       </c>
       <c r="D91" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E91" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F91" t="n">
         <v>1889</v>
@@ -15052,13 +15052,13 @@
         <v>97</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="J91" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K91" t="n">
         <v>69</v>
@@ -15195,16 +15195,16 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C92" t="n">
-        <v>165</v>
+        <v>165.3</v>
       </c>
       <c r="D92" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E92" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F92" t="n">
         <v>2017</v>
@@ -15213,13 +15213,13 @@
         <v>103</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>2.99</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>3.47</v>
       </c>
       <c r="J92" t="n">
-        <v>21</v>
+        <v>21.9</v>
       </c>
       <c r="K92" t="n">
         <v>55</v>
@@ -15356,16 +15356,16 @@
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C93" t="n">
-        <v>165</v>
+        <v>165.3</v>
       </c>
       <c r="D93" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E93" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F93" t="n">
         <v>1918</v>
@@ -15374,13 +15374,13 @@
         <v>97</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="J93" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K93" t="n">
         <v>69</v>
@@ -15517,16 +15517,16 @@
         <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C94" t="n">
-        <v>165</v>
+        <v>165.3</v>
       </c>
       <c r="D94" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E94" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F94" t="n">
         <v>1938</v>
@@ -15535,13 +15535,13 @@
         <v>97</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="J94" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K94" t="n">
         <v>69</v>
@@ -15678,16 +15678,16 @@
         <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C95" t="n">
-        <v>170</v>
+        <v>170.2</v>
       </c>
       <c r="D95" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E95" t="n">
-        <v>53</v>
+        <v>53.5</v>
       </c>
       <c r="F95" t="n">
         <v>2024</v>
@@ -15696,13 +15696,13 @@
         <v>97</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="J95" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K95" t="n">
         <v>69</v>
@@ -15839,16 +15839,16 @@
         <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C96" t="n">
-        <v>165</v>
+        <v>165.3</v>
       </c>
       <c r="D96" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E96" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F96" t="n">
         <v>1951</v>
@@ -15857,13 +15857,13 @@
         <v>97</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="J96" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K96" t="n">
         <v>69</v>
@@ -16000,16 +16000,16 @@
         <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C97" t="n">
-        <v>165</v>
+        <v>165.6</v>
       </c>
       <c r="D97" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E97" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="F97" t="n">
         <v>2028</v>
@@ -16018,13 +16018,13 @@
         <v>97</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="J97" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K97" t="n">
         <v>69</v>
@@ -16161,16 +16161,16 @@
         <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C98" t="n">
-        <v>165</v>
+        <v>165.3</v>
       </c>
       <c r="D98" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E98" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F98" t="n">
         <v>1971</v>
@@ -16179,13 +16179,13 @@
         <v>97</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="J98" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K98" t="n">
         <v>69</v>
@@ -16322,16 +16322,16 @@
         <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C99" t="n">
-        <v>170</v>
+        <v>170.2</v>
       </c>
       <c r="D99" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E99" t="n">
-        <v>53</v>
+        <v>53.5</v>
       </c>
       <c r="F99" t="n">
         <v>2037</v>
@@ -16340,13 +16340,13 @@
         <v>97</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="J99" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K99" t="n">
         <v>69</v>
@@ -16483,16 +16483,16 @@
         <v>2</v>
       </c>
       <c r="B100" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>162</v>
+        <v>162.4</v>
       </c>
       <c r="D100" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E100" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="F100" t="n">
         <v>2008</v>
@@ -16501,13 +16501,13 @@
         <v>97</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="J100" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K100" t="n">
         <v>69</v>
@@ -16644,16 +16644,16 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="C101" t="n">
-        <v>173</v>
+        <v>173.4</v>
       </c>
       <c r="D101" t="n">
-        <v>65</v>
+        <v>65.2</v>
       </c>
       <c r="E101" t="n">
-        <v>54</v>
+        <v>54.7</v>
       </c>
       <c r="F101" t="n">
         <v>2324</v>
@@ -16662,13 +16662,13 @@
         <v>120</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>3.33</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>3.47</v>
       </c>
       <c r="J101" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K101" t="n">
         <v>97</v>
@@ -16805,16 +16805,16 @@
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="C102" t="n">
-        <v>173</v>
+        <v>173.4</v>
       </c>
       <c r="D102" t="n">
-        <v>65</v>
+        <v>65.2</v>
       </c>
       <c r="E102" t="n">
-        <v>54</v>
+        <v>54.7</v>
       </c>
       <c r="F102" t="n">
         <v>2302</v>
@@ -16823,13 +16823,13 @@
         <v>120</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>3.33</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>3.47</v>
       </c>
       <c r="J102" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K102" t="n">
         <v>97</v>
@@ -16966,16 +16966,16 @@
         <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="C103" t="n">
-        <v>181</v>
+        <v>181.7</v>
       </c>
       <c r="D103" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E103" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F103" t="n">
         <v>3095</v>
@@ -16984,10 +16984,10 @@
         <v>181</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="J103" t="n">
         <v>9</v>
@@ -17127,16 +17127,16 @@
         <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="C104" t="n">
-        <v>184</v>
+        <v>184.6</v>
       </c>
       <c r="D104" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E104" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="F104" t="n">
         <v>3296</v>
@@ -17145,10 +17145,10 @@
         <v>181</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="J104" t="n">
         <v>9</v>
@@ -17288,16 +17288,16 @@
         <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="C105" t="n">
-        <v>184</v>
+        <v>184.6</v>
       </c>
       <c r="D105" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E105" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F105" t="n">
         <v>3060</v>
@@ -17306,10 +17306,10 @@
         <v>181</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="J105" t="n">
         <v>9</v>
@@ -17449,16 +17449,16 @@
         <v>3</v>
       </c>
       <c r="B106" t="n">
-        <v>91</v>
+        <v>91.3</v>
       </c>
       <c r="C106" t="n">
-        <v>170</v>
+        <v>170.7</v>
       </c>
       <c r="D106" t="n">
-        <v>67</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>49</v>
+        <v>49.7</v>
       </c>
       <c r="F106" t="n">
         <v>3071</v>
@@ -17467,10 +17467,10 @@
         <v>181</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="J106" t="n">
         <v>9</v>
@@ -17610,16 +17610,16 @@
         <v>3</v>
       </c>
       <c r="B107" t="n">
-        <v>91</v>
+        <v>91.3</v>
       </c>
       <c r="C107" t="n">
-        <v>170</v>
+        <v>170.7</v>
       </c>
       <c r="D107" t="n">
-        <v>67</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>49</v>
+        <v>49.7</v>
       </c>
       <c r="F107" t="n">
         <v>3139</v>
@@ -17628,13 +17628,13 @@
         <v>181</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="J107" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="K107" t="n">
         <v>200</v>
@@ -17771,16 +17771,16 @@
         <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="C108" t="n">
-        <v>178</v>
+        <v>178.5</v>
       </c>
       <c r="D108" t="n">
-        <v>67</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>49</v>
+        <v>49.7</v>
       </c>
       <c r="F108" t="n">
         <v>3139</v>
@@ -17789,10 +17789,10 @@
         <v>181</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="J108" t="n">
         <v>9</v>
@@ -17932,16 +17932,16 @@
         <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>107</v>
+        <v>107.9</v>
       </c>
       <c r="C109" t="n">
-        <v>186</v>
+        <v>186.7</v>
       </c>
       <c r="D109" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="F109" t="n">
         <v>3020</v>
@@ -17950,13 +17950,13 @@
         <v>120</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="J109" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K109" t="n">
         <v>97</v>
@@ -18093,16 +18093,16 @@
         <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>107</v>
+        <v>107.9</v>
       </c>
       <c r="C110" t="n">
-        <v>186</v>
+        <v>186.7</v>
       </c>
       <c r="D110" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="F110" t="n">
         <v>3197</v>
@@ -18111,10 +18111,10 @@
         <v>152</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>3.52</v>
       </c>
       <c r="J110" t="n">
         <v>21</v>
@@ -18254,16 +18254,16 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>114</v>
+        <v>114.2</v>
       </c>
       <c r="C111" t="n">
-        <v>198</v>
+        <v>198.9</v>
       </c>
       <c r="D111" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>58</v>
+        <v>58.7</v>
       </c>
       <c r="F111" t="n">
         <v>3230</v>
@@ -18272,13 +18272,13 @@
         <v>120</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="J111" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K111" t="n">
         <v>97</v>
@@ -18415,16 +18415,16 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>114</v>
+        <v>114.2</v>
       </c>
       <c r="C112" t="n">
-        <v>198</v>
+        <v>198.9</v>
       </c>
       <c r="D112" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>58</v>
+        <v>58.7</v>
       </c>
       <c r="F112" t="n">
         <v>3430</v>
@@ -18433,10 +18433,10 @@
         <v>152</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>3.52</v>
       </c>
       <c r="J112" t="n">
         <v>21</v>
@@ -18576,16 +18576,16 @@
         <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>107</v>
+        <v>107.9</v>
       </c>
       <c r="C113" t="n">
-        <v>186</v>
+        <v>186.7</v>
       </c>
       <c r="D113" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="F113" t="n">
         <v>3075</v>
@@ -18594,13 +18594,13 @@
         <v>120</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="J113" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K113" t="n">
         <v>95</v>
@@ -18737,16 +18737,16 @@
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>107</v>
+        <v>107.9</v>
       </c>
       <c r="C114" t="n">
-        <v>186</v>
+        <v>186.7</v>
       </c>
       <c r="D114" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="F114" t="n">
         <v>3252</v>
@@ -18755,10 +18755,10 @@
         <v>152</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>3.52</v>
       </c>
       <c r="J114" t="n">
         <v>21</v>
@@ -18898,16 +18898,16 @@
         <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>114</v>
+        <v>114.2</v>
       </c>
       <c r="C115" t="n">
-        <v>198</v>
+        <v>198.9</v>
       </c>
       <c r="D115" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="F115" t="n">
         <v>3285</v>
@@ -18916,13 +18916,13 @@
         <v>120</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="J115" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K115" t="n">
         <v>95</v>
@@ -19059,16 +19059,16 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>114</v>
+        <v>114.2</v>
       </c>
       <c r="C116" t="n">
-        <v>198</v>
+        <v>198.9</v>
       </c>
       <c r="D116" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>58</v>
+        <v>58.7</v>
       </c>
       <c r="F116" t="n">
         <v>3485</v>
@@ -19077,10 +19077,10 @@
         <v>152</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>3.52</v>
       </c>
       <c r="J116" t="n">
         <v>21</v>
@@ -19220,16 +19220,16 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>107</v>
+        <v>107.9</v>
       </c>
       <c r="C117" t="n">
-        <v>186</v>
+        <v>186.7</v>
       </c>
       <c r="D117" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="F117" t="n">
         <v>3075</v>
@@ -19238,13 +19238,13 @@
         <v>120</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="J117" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K117" t="n">
         <v>97</v>
@@ -19381,16 +19381,16 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>107</v>
+        <v>107.9</v>
       </c>
       <c r="C118" t="n">
-        <v>186</v>
+        <v>186.7</v>
       </c>
       <c r="D118" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="F118" t="n">
         <v>3252</v>
@@ -19399,10 +19399,10 @@
         <v>152</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>3.52</v>
       </c>
       <c r="J118" t="n">
         <v>21</v>
@@ -19545,10 +19545,10 @@
         <v>108</v>
       </c>
       <c r="C119" t="n">
-        <v>186</v>
+        <v>186.7</v>
       </c>
       <c r="D119" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="E119" t="n">
         <v>56</v>
@@ -19560,10 +19560,10 @@
         <v>134</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>3.61</v>
       </c>
       <c r="I119" t="n">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="J119" t="n">
         <v>7</v>
@@ -19703,16 +19703,16 @@
         <v>1</v>
       </c>
       <c r="B120" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C120" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D120" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E120" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="F120" t="n">
         <v>1918</v>
@@ -19721,13 +19721,13 @@
         <v>90</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>2.97</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="J120" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K120" t="n">
         <v>68</v>
@@ -19864,16 +19864,16 @@
         <v>1</v>
       </c>
       <c r="B121" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C121" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D121" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E121" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="F121" t="n">
         <v>2128</v>
@@ -19882,13 +19882,13 @@
         <v>98</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="J121" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="K121" t="n">
         <v>102</v>
@@ -20025,16 +20025,16 @@
         <v>1</v>
       </c>
       <c r="B122" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C122" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D122" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E122" t="n">
-        <v>50</v>
+        <v>50.6</v>
       </c>
       <c r="F122" t="n">
         <v>1967</v>
@@ -20043,13 +20043,13 @@
         <v>90</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>2.97</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="J122" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K122" t="n">
         <v>68</v>
@@ -20186,16 +20186,16 @@
         <v>1</v>
       </c>
       <c r="B123" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C123" t="n">
-        <v>167</v>
+        <v>167.3</v>
       </c>
       <c r="D123" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E123" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="F123" t="n">
         <v>1989</v>
@@ -20204,13 +20204,13 @@
         <v>90</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>2.97</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="J123" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K123" t="n">
         <v>68</v>
@@ -20347,16 +20347,16 @@
         <v>1</v>
       </c>
       <c r="B124" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C124" t="n">
-        <v>167</v>
+        <v>167.3</v>
       </c>
       <c r="D124" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E124" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="F124" t="n">
         <v>2191</v>
@@ -20365,13 +20365,13 @@
         <v>98</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>2.97</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="J124" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K124" t="n">
         <v>68</v>
@@ -20508,16 +20508,16 @@
         <v>-1</v>
       </c>
       <c r="B125" t="n">
-        <v>103</v>
+        <v>103.3</v>
       </c>
       <c r="C125" t="n">
-        <v>174</v>
+        <v>174.6</v>
       </c>
       <c r="D125" t="n">
-        <v>64</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>59</v>
+        <v>59.8</v>
       </c>
       <c r="F125" t="n">
         <v>2535</v>
@@ -20526,13 +20526,13 @@
         <v>122</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="J125" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K125" t="n">
         <v>88</v>
@@ -20669,16 +20669,16 @@
         <v>3</v>
       </c>
       <c r="B126" t="n">
-        <v>95</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>173</v>
+        <v>173.2</v>
       </c>
       <c r="D126" t="n">
-        <v>66</v>
+        <v>66.3</v>
       </c>
       <c r="E126" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="F126" t="n">
         <v>2818</v>
@@ -20687,10 +20687,10 @@
         <v>156</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>3.59</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>3.86</v>
       </c>
       <c r="J126" t="n">
         <v>7</v>
@@ -20830,16 +20830,16 @@
         <v>3</v>
       </c>
       <c r="B127" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C127" t="n">
-        <v>168</v>
+        <v>168.9</v>
       </c>
       <c r="D127" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="E127" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="F127" t="n">
         <v>2778</v>
@@ -20848,13 +20848,13 @@
         <v>151</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>3.94</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="J127" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K127" t="n">
         <v>143</v>
@@ -20991,16 +20991,16 @@
         <v>3</v>
       </c>
       <c r="B128" t="n">
-        <v>89</v>
+        <v>89.5</v>
       </c>
       <c r="C128" t="n">
-        <v>168</v>
+        <v>168.9</v>
       </c>
       <c r="D128" t="n">
         <v>65</v>
       </c>
       <c r="E128" t="n">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="F128" t="n">
         <v>2756</v>
@@ -21009,13 +21009,13 @@
         <v>194</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="J128" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K128" t="n">
         <v>207</v>
@@ -21152,16 +21152,16 @@
         <v>3</v>
       </c>
       <c r="B129" t="n">
-        <v>89</v>
+        <v>89.5</v>
       </c>
       <c r="C129" t="n">
-        <v>168</v>
+        <v>168.9</v>
       </c>
       <c r="D129" t="n">
         <v>65</v>
       </c>
       <c r="E129" t="n">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="F129" t="n">
         <v>2756</v>
@@ -21170,13 +21170,13 @@
         <v>194</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="J129" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K129" t="n">
         <v>207</v>
@@ -21313,16 +21313,16 @@
         <v>3</v>
       </c>
       <c r="B130" t="n">
-        <v>89</v>
+        <v>89.5</v>
       </c>
       <c r="C130" t="n">
-        <v>168</v>
+        <v>168.9</v>
       </c>
       <c r="D130" t="n">
         <v>65</v>
       </c>
       <c r="E130" t="n">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="F130" t="n">
         <v>2800</v>
@@ -21331,13 +21331,13 @@
         <v>194</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="J130" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K130" t="n">
         <v>207</v>
@@ -21474,16 +21474,16 @@
         <v>1</v>
       </c>
       <c r="B131" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>175</v>
+        <v>175.7</v>
       </c>
       <c r="D131" t="n">
-        <v>72</v>
+        <v>72.3</v>
       </c>
       <c r="E131" t="n">
-        <v>50</v>
+        <v>50.5</v>
       </c>
       <c r="F131" t="n">
         <v>3366</v>
@@ -21492,10 +21492,10 @@
         <v>203</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>3.94</v>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="J131" t="n">
         <v>10</v>
@@ -21627,7 +21627,7 @@
         <v>0</v>
       </c>
       <c r="BA131" t="n">
-        <v>31400</v>
+        <v>31400.5</v>
       </c>
     </row>
     <row r="132">
@@ -21635,16 +21635,16 @@
         <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>181</v>
+        <v>181.5</v>
       </c>
       <c r="D132" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E132" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="F132" t="n">
         <v>2579</v>
@@ -21653,13 +21653,13 @@
         <v>132</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="J132" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K132" t="n">
         <v>90</v>
@@ -21796,16 +21796,16 @@
         <v>2</v>
       </c>
       <c r="B133" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>176</v>
+        <v>176.8</v>
       </c>
       <c r="D133" t="n">
-        <v>66</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>50</v>
+        <v>50.5</v>
       </c>
       <c r="F133" t="n">
         <v>2460</v>
@@ -21814,13 +21814,13 @@
         <v>132</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="J133" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K133" t="n">
         <v>90</v>
@@ -21957,16 +21957,16 @@
         <v>3</v>
       </c>
       <c r="B134" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>186</v>
+        <v>186.6</v>
       </c>
       <c r="D134" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E134" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="F134" t="n">
         <v>2658</v>
@@ -21975,13 +21975,13 @@
         <v>121</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>3.54</v>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="J134" t="n">
-        <v>9</v>
+        <v>9.31</v>
       </c>
       <c r="K134" t="n">
         <v>110</v>
@@ -22118,16 +22118,16 @@
         <v>2</v>
       </c>
       <c r="B135" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>186</v>
+        <v>186.6</v>
       </c>
       <c r="D135" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E135" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="F135" t="n">
         <v>2695</v>
@@ -22136,13 +22136,13 @@
         <v>121</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>3.54</v>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="J135" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K135" t="n">
         <v>110</v>
@@ -22279,16 +22279,16 @@
         <v>3</v>
       </c>
       <c r="B136" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>186</v>
+        <v>186.6</v>
       </c>
       <c r="D136" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E136" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="F136" t="n">
         <v>2707</v>
@@ -22297,13 +22297,13 @@
         <v>121</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="I136" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="J136" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K136" t="n">
         <v>110</v>
@@ -22440,16 +22440,16 @@
         <v>2</v>
       </c>
       <c r="B137" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>186</v>
+        <v>186.6</v>
       </c>
       <c r="D137" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E137" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="F137" t="n">
         <v>2758</v>
@@ -22458,13 +22458,13 @@
         <v>121</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>3.54</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="J137" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K137" t="n">
         <v>110</v>
@@ -22601,16 +22601,16 @@
         <v>3</v>
       </c>
       <c r="B138" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>186</v>
+        <v>186.6</v>
       </c>
       <c r="D138" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E138" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="F138" t="n">
         <v>2808</v>
@@ -22619,10 +22619,10 @@
         <v>121</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>3.54</v>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="J138" t="n">
         <v>9</v>
@@ -22762,16 +22762,16 @@
         <v>2</v>
       </c>
       <c r="B139" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>186</v>
+        <v>186.6</v>
       </c>
       <c r="D139" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E139" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="F139" t="n">
         <v>2847</v>
@@ -22780,10 +22780,10 @@
         <v>121</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>3.54</v>
       </c>
       <c r="I139" t="n">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="J139" t="n">
         <v>9</v>
@@ -22923,16 +22923,16 @@
         <v>2</v>
       </c>
       <c r="B140" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C140" t="n">
-        <v>156</v>
+        <v>156.9</v>
       </c>
       <c r="D140" t="n">
-        <v>63</v>
+        <v>63.4</v>
       </c>
       <c r="E140" t="n">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="F140" t="n">
         <v>2050</v>
@@ -22941,10 +22941,10 @@
         <v>97</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="J140" t="n">
         <v>9</v>
@@ -23084,16 +23084,16 @@
         <v>2</v>
       </c>
       <c r="B141" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C141" t="n">
-        <v>157</v>
+        <v>157.9</v>
       </c>
       <c r="D141" t="n">
-        <v>63</v>
+        <v>63.6</v>
       </c>
       <c r="E141" t="n">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="F141" t="n">
         <v>2120</v>
@@ -23102,13 +23102,13 @@
         <v>108</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="J141" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K141" t="n">
         <v>73</v>
@@ -23245,16 +23245,16 @@
         <v>2</v>
       </c>
       <c r="B142" t="n">
-        <v>93</v>
+        <v>93.3</v>
       </c>
       <c r="C142" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D142" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E142" t="n">
-        <v>55</v>
+        <v>55.7</v>
       </c>
       <c r="F142" t="n">
         <v>2240</v>
@@ -23263,13 +23263,13 @@
         <v>108</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I142" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="J142" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K142" t="n">
         <v>73</v>
@@ -23406,16 +23406,16 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="C143" t="n">
         <v>172</v>
       </c>
       <c r="D143" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>52</v>
+        <v>52.5</v>
       </c>
       <c r="F143" t="n">
         <v>2145</v>
@@ -23424,13 +23424,13 @@
         <v>108</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="J143" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K143" t="n">
         <v>82</v>
@@ -23567,16 +23567,16 @@
         <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="C144" t="n">
         <v>172</v>
       </c>
       <c r="D144" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E144" t="n">
-        <v>52</v>
+        <v>52.5</v>
       </c>
       <c r="F144" t="n">
         <v>2190</v>
@@ -23585,13 +23585,13 @@
         <v>108</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I144" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="J144" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K144" t="n">
         <v>82</v>
@@ -23728,16 +23728,16 @@
         <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="C145" t="n">
         <v>172</v>
       </c>
       <c r="D145" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E145" t="n">
-        <v>52</v>
+        <v>52.5</v>
       </c>
       <c r="F145" t="n">
         <v>2340</v>
@@ -23746,10 +23746,10 @@
         <v>108</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I145" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="J145" t="n">
         <v>9</v>
@@ -23895,10 +23895,10 @@
         <v>172</v>
       </c>
       <c r="D146" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E146" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="F146" t="n">
         <v>2385</v>
@@ -23907,10 +23907,10 @@
         <v>108</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I146" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="J146" t="n">
         <v>9</v>
@@ -24056,10 +24056,10 @@
         <v>172</v>
       </c>
       <c r="D147" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E147" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="F147" t="n">
         <v>2510</v>
@@ -24068,13 +24068,13 @@
         <v>108</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="J147" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="K147" t="n">
         <v>111</v>
@@ -24214,10 +24214,10 @@
         <v>97</v>
       </c>
       <c r="C148" t="n">
-        <v>173</v>
+        <v>173.5</v>
       </c>
       <c r="D148" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E148" t="n">
         <v>53</v>
@@ -24229,10 +24229,10 @@
         <v>108</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="J148" t="n">
         <v>9</v>
@@ -24375,10 +24375,10 @@
         <v>97</v>
       </c>
       <c r="C149" t="n">
-        <v>173</v>
+        <v>173.5</v>
       </c>
       <c r="D149" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E149" t="n">
         <v>53</v>
@@ -24390,10 +24390,10 @@
         <v>108</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I149" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="J149" t="n">
         <v>9</v>
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>96</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>173</v>
+        <v>173.6</v>
       </c>
       <c r="D150" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E150" t="n">
-        <v>54</v>
+        <v>54.9</v>
       </c>
       <c r="F150" t="n">
         <v>2420</v>
@@ -24551,10 +24551,10 @@
         <v>108</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I150" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="J150" t="n">
         <v>9</v>
@@ -24694,16 +24694,16 @@
         <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>96</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C151" t="n">
-        <v>173</v>
+        <v>173.6</v>
       </c>
       <c r="D151" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E151" t="n">
-        <v>54</v>
+        <v>54.9</v>
       </c>
       <c r="F151" t="n">
         <v>2650</v>
@@ -24712,13 +24712,13 @@
         <v>108</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I151" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="J151" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="K151" t="n">
         <v>111</v>
@@ -24855,16 +24855,16 @@
         <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>95</v>
+        <v>95.7</v>
       </c>
       <c r="C152" t="n">
-        <v>158</v>
+        <v>158.7</v>
       </c>
       <c r="D152" t="n">
-        <v>63</v>
+        <v>63.6</v>
       </c>
       <c r="E152" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F152" t="n">
         <v>1985</v>
@@ -24873,10 +24873,10 @@
         <v>92</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="J152" t="n">
         <v>9</v>
@@ -25016,16 +25016,16 @@
         <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>95</v>
+        <v>95.7</v>
       </c>
       <c r="C153" t="n">
-        <v>158</v>
+        <v>158.7</v>
       </c>
       <c r="D153" t="n">
-        <v>63</v>
+        <v>63.6</v>
       </c>
       <c r="E153" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F153" t="n">
         <v>2040</v>
@@ -25034,10 +25034,10 @@
         <v>92</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="J153" t="n">
         <v>9</v>
@@ -25177,16 +25177,16 @@
         <v>1</v>
       </c>
       <c r="B154" t="n">
-        <v>95</v>
+        <v>95.7</v>
       </c>
       <c r="C154" t="n">
-        <v>158</v>
+        <v>158.7</v>
       </c>
       <c r="D154" t="n">
-        <v>63</v>
+        <v>63.6</v>
       </c>
       <c r="E154" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F154" t="n">
         <v>2015</v>
@@ -25195,10 +25195,10 @@
         <v>92</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I154" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="J154" t="n">
         <v>9</v>
@@ -25338,16 +25338,16 @@
         <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>95</v>
+        <v>95.7</v>
       </c>
       <c r="C155" t="n">
-        <v>169</v>
+        <v>169.7</v>
       </c>
       <c r="D155" t="n">
-        <v>63</v>
+        <v>63.6</v>
       </c>
       <c r="E155" t="n">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="F155" t="n">
         <v>2280</v>
@@ -25356,10 +25356,10 @@
         <v>92</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="J155" t="n">
         <v>9</v>
@@ -25499,16 +25499,16 @@
         <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>95</v>
+        <v>95.7</v>
       </c>
       <c r="C156" t="n">
-        <v>169</v>
+        <v>169.7</v>
       </c>
       <c r="D156" t="n">
-        <v>63</v>
+        <v>63.6</v>
       </c>
       <c r="E156" t="n">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="F156" t="n">
         <v>2290</v>
@@ -25517,10 +25517,10 @@
         <v>92</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="J156" t="n">
         <v>9</v>
@@ -25660,16 +25660,16 @@
         <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>95</v>
+        <v>95.7</v>
       </c>
       <c r="C157" t="n">
-        <v>169</v>
+        <v>169.7</v>
       </c>
       <c r="D157" t="n">
-        <v>63</v>
+        <v>63.6</v>
       </c>
       <c r="E157" t="n">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="F157" t="n">
         <v>3110</v>
@@ -25678,10 +25678,10 @@
         <v>92</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="J157" t="n">
         <v>9</v>
@@ -25821,13 +25821,13 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>95</v>
+        <v>95.7</v>
       </c>
       <c r="C158" t="n">
-        <v>166</v>
+        <v>166.3</v>
       </c>
       <c r="D158" t="n">
-        <v>64</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E158" t="n">
         <v>53</v>
@@ -25839,10 +25839,10 @@
         <v>98</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="J158" t="n">
         <v>9</v>
@@ -25982,16 +25982,16 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>95</v>
+        <v>95.7</v>
       </c>
       <c r="C159" t="n">
-        <v>166</v>
+        <v>166.3</v>
       </c>
       <c r="D159" t="n">
-        <v>64</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E159" t="n">
-        <v>52</v>
+        <v>52.8</v>
       </c>
       <c r="F159" t="n">
         <v>2109</v>
@@ -26000,10 +26000,10 @@
         <v>98</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I159" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="J159" t="n">
         <v>9</v>
@@ -26143,13 +26143,13 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>95</v>
+        <v>95.7</v>
       </c>
       <c r="C160" t="n">
-        <v>166</v>
+        <v>166.3</v>
       </c>
       <c r="D160" t="n">
-        <v>64</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E160" t="n">
         <v>53</v>
@@ -26161,13 +26161,13 @@
         <v>110</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="J160" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="K160" t="n">
         <v>56</v>
@@ -26304,16 +26304,16 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>95</v>
+        <v>95.7</v>
       </c>
       <c r="C161" t="n">
-        <v>166</v>
+        <v>166.3</v>
       </c>
       <c r="D161" t="n">
-        <v>64</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E161" t="n">
-        <v>52</v>
+        <v>52.8</v>
       </c>
       <c r="F161" t="n">
         <v>2275</v>
@@ -26322,13 +26322,13 @@
         <v>110</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="J161" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="K161" t="n">
         <v>56</v>
@@ -26465,13 +26465,13 @@
         <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>95</v>
+        <v>95.7</v>
       </c>
       <c r="C162" t="n">
-        <v>166</v>
+        <v>166.3</v>
       </c>
       <c r="D162" t="n">
-        <v>64</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E162" t="n">
         <v>53</v>
@@ -26483,10 +26483,10 @@
         <v>98</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="J162" t="n">
         <v>9</v>
@@ -26626,16 +26626,16 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>95</v>
+        <v>95.7</v>
       </c>
       <c r="C163" t="n">
-        <v>166</v>
+        <v>166.3</v>
       </c>
       <c r="D163" t="n">
-        <v>64</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E163" t="n">
-        <v>52</v>
+        <v>52.8</v>
       </c>
       <c r="F163" t="n">
         <v>2122</v>
@@ -26644,10 +26644,10 @@
         <v>98</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="J163" t="n">
         <v>9</v>
@@ -26787,16 +26787,16 @@
         <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>95</v>
+        <v>95.7</v>
       </c>
       <c r="C164" t="n">
-        <v>166</v>
+        <v>166.3</v>
       </c>
       <c r="D164" t="n">
-        <v>64</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E164" t="n">
-        <v>52</v>
+        <v>52.8</v>
       </c>
       <c r="F164" t="n">
         <v>2140</v>
@@ -26805,10 +26805,10 @@
         <v>98</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="J164" t="n">
         <v>9</v>
@@ -26948,16 +26948,16 @@
         <v>1</v>
       </c>
       <c r="B165" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C165" t="n">
-        <v>168</v>
+        <v>168.7</v>
       </c>
       <c r="D165" t="n">
         <v>64</v>
       </c>
       <c r="E165" t="n">
-        <v>52</v>
+        <v>52.6</v>
       </c>
       <c r="F165" t="n">
         <v>2169</v>
@@ -26966,10 +26966,10 @@
         <v>98</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I165" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="J165" t="n">
         <v>9</v>
@@ -27109,16 +27109,16 @@
         <v>1</v>
       </c>
       <c r="B166" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C166" t="n">
-        <v>168</v>
+        <v>168.7</v>
       </c>
       <c r="D166" t="n">
         <v>64</v>
       </c>
       <c r="E166" t="n">
-        <v>52</v>
+        <v>52.6</v>
       </c>
       <c r="F166" t="n">
         <v>2204</v>
@@ -27127,10 +27127,10 @@
         <v>98</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I166" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="J166" t="n">
         <v>9</v>
@@ -27270,16 +27270,16 @@
         <v>1</v>
       </c>
       <c r="B167" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C167" t="n">
-        <v>168</v>
+        <v>168.7</v>
       </c>
       <c r="D167" t="n">
         <v>64</v>
       </c>
       <c r="E167" t="n">
-        <v>52</v>
+        <v>52.6</v>
       </c>
       <c r="F167" t="n">
         <v>2265</v>
@@ -27288,13 +27288,13 @@
         <v>98</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>3.24</v>
       </c>
       <c r="I167" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="J167" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K167" t="n">
         <v>112</v>
@@ -27431,16 +27431,16 @@
         <v>1</v>
       </c>
       <c r="B168" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C168" t="n">
-        <v>168</v>
+        <v>168.7</v>
       </c>
       <c r="D168" t="n">
         <v>64</v>
       </c>
       <c r="E168" t="n">
-        <v>52</v>
+        <v>52.6</v>
       </c>
       <c r="F168" t="n">
         <v>2300</v>
@@ -27449,13 +27449,13 @@
         <v>98</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>3.24</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="J168" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="K168" t="n">
         <v>112</v>
@@ -27592,13 +27592,13 @@
         <v>2</v>
       </c>
       <c r="B169" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C169" t="n">
-        <v>176</v>
+        <v>176.2</v>
       </c>
       <c r="D169" t="n">
-        <v>65</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E169" t="n">
         <v>52</v>
@@ -27610,13 +27610,13 @@
         <v>146</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I169" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J169" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K169" t="n">
         <v>116</v>
@@ -27753,13 +27753,13 @@
         <v>2</v>
       </c>
       <c r="B170" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C170" t="n">
-        <v>176</v>
+        <v>176.2</v>
       </c>
       <c r="D170" t="n">
-        <v>65</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E170" t="n">
         <v>52</v>
@@ -27771,13 +27771,13 @@
         <v>146</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I170" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J170" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K170" t="n">
         <v>116</v>
@@ -27914,13 +27914,13 @@
         <v>2</v>
       </c>
       <c r="B171" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C171" t="n">
-        <v>176</v>
+        <v>176.2</v>
       </c>
       <c r="D171" t="n">
-        <v>65</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E171" t="n">
         <v>52</v>
@@ -27932,13 +27932,13 @@
         <v>146</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J171" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K171" t="n">
         <v>116</v>
@@ -28075,13 +28075,13 @@
         <v>2</v>
       </c>
       <c r="B172" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>176</v>
+        <v>176.2</v>
       </c>
       <c r="D172" t="n">
-        <v>65</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E172" t="n">
         <v>52</v>
@@ -28093,13 +28093,13 @@
         <v>146</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J172" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K172" t="n">
         <v>116</v>
@@ -28236,13 +28236,13 @@
         <v>2</v>
       </c>
       <c r="B173" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C173" t="n">
-        <v>176</v>
+        <v>176.2</v>
       </c>
       <c r="D173" t="n">
-        <v>65</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E173" t="n">
         <v>52</v>
@@ -28254,13 +28254,13 @@
         <v>146</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J173" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K173" t="n">
         <v>116</v>
@@ -28397,13 +28397,13 @@
         <v>2</v>
       </c>
       <c r="B174" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>176</v>
+        <v>176.2</v>
       </c>
       <c r="D174" t="n">
-        <v>65</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E174" t="n">
         <v>53</v>
@@ -28415,13 +28415,13 @@
         <v>146</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J174" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K174" t="n">
         <v>116</v>
@@ -28558,16 +28558,16 @@
         <v>-1</v>
       </c>
       <c r="B175" t="n">
-        <v>102</v>
+        <v>102.4</v>
       </c>
       <c r="C175" t="n">
-        <v>175</v>
+        <v>175.6</v>
       </c>
       <c r="D175" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E175" t="n">
-        <v>54</v>
+        <v>54.9</v>
       </c>
       <c r="F175" t="n">
         <v>2326</v>
@@ -28576,13 +28576,13 @@
         <v>122</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>3.54</v>
       </c>
       <c r="J175" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K175" t="n">
         <v>92</v>
@@ -28719,16 +28719,16 @@
         <v>-1</v>
       </c>
       <c r="B176" t="n">
-        <v>102</v>
+        <v>102.4</v>
       </c>
       <c r="C176" t="n">
-        <v>175</v>
+        <v>175.6</v>
       </c>
       <c r="D176" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E176" t="n">
-        <v>54</v>
+        <v>54.9</v>
       </c>
       <c r="F176" t="n">
         <v>2480</v>
@@ -28737,13 +28737,13 @@
         <v>110</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="J176" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="K176" t="n">
         <v>73</v>
@@ -28880,16 +28880,16 @@
         <v>-1</v>
       </c>
       <c r="B177" t="n">
-        <v>102</v>
+        <v>102.4</v>
       </c>
       <c r="C177" t="n">
-        <v>175</v>
+        <v>175.6</v>
       </c>
       <c r="D177" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E177" t="n">
-        <v>53</v>
+        <v>53.9</v>
       </c>
       <c r="F177" t="n">
         <v>2414</v>
@@ -28898,13 +28898,13 @@
         <v>122</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
+        <v>3.54</v>
       </c>
       <c r="J177" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K177" t="n">
         <v>92</v>
@@ -29041,16 +29041,16 @@
         <v>-1</v>
       </c>
       <c r="B178" t="n">
-        <v>102</v>
+        <v>102.4</v>
       </c>
       <c r="C178" t="n">
-        <v>175</v>
+        <v>175.6</v>
       </c>
       <c r="D178" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E178" t="n">
-        <v>54</v>
+        <v>54.9</v>
       </c>
       <c r="F178" t="n">
         <v>2414</v>
@@ -29059,13 +29059,13 @@
         <v>122</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
+        <v>3.54</v>
       </c>
       <c r="J178" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K178" t="n">
         <v>92</v>
@@ -29202,16 +29202,16 @@
         <v>-1</v>
       </c>
       <c r="B179" t="n">
-        <v>102</v>
+        <v>102.4</v>
       </c>
       <c r="C179" t="n">
-        <v>175</v>
+        <v>175.6</v>
       </c>
       <c r="D179" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E179" t="n">
-        <v>53</v>
+        <v>53.9</v>
       </c>
       <c r="F179" t="n">
         <v>2458</v>
@@ -29220,13 +29220,13 @@
         <v>122</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>3.54</v>
       </c>
       <c r="J179" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K179" t="n">
         <v>92</v>
@@ -29363,13 +29363,13 @@
         <v>3</v>
       </c>
       <c r="B180" t="n">
-        <v>102</v>
+        <v>102.9</v>
       </c>
       <c r="C180" t="n">
-        <v>183</v>
+        <v>183.5</v>
       </c>
       <c r="D180" t="n">
-        <v>67</v>
+        <v>67.7</v>
       </c>
       <c r="E180" t="n">
         <v>52</v>
@@ -29381,13 +29381,13 @@
         <v>171</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="I180" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="J180" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K180" t="n">
         <v>161</v>
@@ -29524,13 +29524,13 @@
         <v>3</v>
       </c>
       <c r="B181" t="n">
-        <v>102</v>
+        <v>102.9</v>
       </c>
       <c r="C181" t="n">
-        <v>183</v>
+        <v>183.5</v>
       </c>
       <c r="D181" t="n">
-        <v>67</v>
+        <v>67.7</v>
       </c>
       <c r="E181" t="n">
         <v>52</v>
@@ -29542,13 +29542,13 @@
         <v>171</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="I181" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="J181" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K181" t="n">
         <v>161</v>
@@ -29685,16 +29685,16 @@
         <v>-1</v>
       </c>
       <c r="B182" t="n">
-        <v>104</v>
+        <v>104.5</v>
       </c>
       <c r="C182" t="n">
-        <v>187</v>
+        <v>187.8</v>
       </c>
       <c r="D182" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E182" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F182" t="n">
         <v>3131</v>
@@ -29703,13 +29703,13 @@
         <v>171</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="I182" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="J182" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K182" t="n">
         <v>156</v>
@@ -29846,16 +29846,16 @@
         <v>-1</v>
       </c>
       <c r="B183" t="n">
-        <v>104</v>
+        <v>104.5</v>
       </c>
       <c r="C183" t="n">
-        <v>187</v>
+        <v>187.8</v>
       </c>
       <c r="D183" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E183" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F183" t="n">
         <v>3151</v>
@@ -29864,13 +29864,13 @@
         <v>161</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="J183" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K183" t="n">
         <v>156</v>
@@ -30007,16 +30007,16 @@
         <v>2</v>
       </c>
       <c r="B184" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="C184" t="n">
-        <v>171</v>
+        <v>171.7</v>
       </c>
       <c r="D184" t="n">
-        <v>65</v>
+        <v>65.5</v>
       </c>
       <c r="E184" t="n">
-        <v>55</v>
+        <v>55.7</v>
       </c>
       <c r="F184" t="n">
         <v>2261</v>
@@ -30025,10 +30025,10 @@
         <v>97</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="I184" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J184" t="n">
         <v>23</v>
@@ -30168,16 +30168,16 @@
         <v>2</v>
       </c>
       <c r="B185" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="C185" t="n">
-        <v>171</v>
+        <v>171.7</v>
       </c>
       <c r="D185" t="n">
-        <v>65</v>
+        <v>65.5</v>
       </c>
       <c r="E185" t="n">
-        <v>55</v>
+        <v>55.7</v>
       </c>
       <c r="F185" t="n">
         <v>2209</v>
@@ -30186,10 +30186,10 @@
         <v>109</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I185" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J185" t="n">
         <v>9</v>
@@ -30329,16 +30329,16 @@
         <v>2</v>
       </c>
       <c r="B186" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="C186" t="n">
-        <v>171</v>
+        <v>171.7</v>
       </c>
       <c r="D186" t="n">
-        <v>65</v>
+        <v>65.5</v>
       </c>
       <c r="E186" t="n">
-        <v>55</v>
+        <v>55.7</v>
       </c>
       <c r="F186" t="n">
         <v>2264</v>
@@ -30347,10 +30347,10 @@
         <v>97</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J186" t="n">
         <v>23</v>
@@ -30490,16 +30490,16 @@
         <v>2</v>
       </c>
       <c r="B187" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="C187" t="n">
-        <v>171</v>
+        <v>171.7</v>
       </c>
       <c r="D187" t="n">
-        <v>65</v>
+        <v>65.5</v>
       </c>
       <c r="E187" t="n">
-        <v>55</v>
+        <v>55.7</v>
       </c>
       <c r="F187" t="n">
         <v>2212</v>
@@ -30508,10 +30508,10 @@
         <v>109</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I187" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J187" t="n">
         <v>9</v>
@@ -30651,16 +30651,16 @@
         <v>2</v>
       </c>
       <c r="B188" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="C188" t="n">
-        <v>171</v>
+        <v>171.7</v>
       </c>
       <c r="D188" t="n">
-        <v>65</v>
+        <v>65.5</v>
       </c>
       <c r="E188" t="n">
-        <v>55</v>
+        <v>55.7</v>
       </c>
       <c r="F188" t="n">
         <v>2275</v>
@@ -30669,10 +30669,10 @@
         <v>109</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J188" t="n">
         <v>9</v>
@@ -30812,16 +30812,16 @@
         <v>2</v>
       </c>
       <c r="B189" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="C189" t="n">
-        <v>171</v>
+        <v>171.7</v>
       </c>
       <c r="D189" t="n">
-        <v>65</v>
+        <v>65.5</v>
       </c>
       <c r="E189" t="n">
-        <v>55</v>
+        <v>55.7</v>
       </c>
       <c r="F189" t="n">
         <v>2319</v>
@@ -30830,10 +30830,10 @@
         <v>97</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="I189" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J189" t="n">
         <v>23</v>
@@ -30973,16 +30973,16 @@
         <v>2</v>
       </c>
       <c r="B190" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="C190" t="n">
-        <v>171</v>
+        <v>171.7</v>
       </c>
       <c r="D190" t="n">
-        <v>65</v>
+        <v>65.5</v>
       </c>
       <c r="E190" t="n">
-        <v>55</v>
+        <v>55.7</v>
       </c>
       <c r="F190" t="n">
         <v>2300</v>
@@ -30991,10 +30991,10 @@
         <v>109</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I190" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J190" t="n">
         <v>10</v>
@@ -31134,16 +31134,16 @@
         <v>3</v>
       </c>
       <c r="B191" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C191" t="n">
-        <v>159</v>
+        <v>159.3</v>
       </c>
       <c r="D191" t="n">
-        <v>64</v>
+        <v>64.2</v>
       </c>
       <c r="E191" t="n">
-        <v>55</v>
+        <v>55.6</v>
       </c>
       <c r="F191" t="n">
         <v>2254</v>
@@ -31152,13 +31152,13 @@
         <v>109</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I191" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J191" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K191" t="n">
         <v>90</v>
@@ -31295,16 +31295,16 @@
         <v>3</v>
       </c>
       <c r="B192" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C192" t="n">
-        <v>165</v>
+        <v>165.7</v>
       </c>
       <c r="D192" t="n">
         <v>64</v>
       </c>
       <c r="E192" t="n">
-        <v>51</v>
+        <v>51.4</v>
       </c>
       <c r="F192" t="n">
         <v>2221</v>
@@ -31313,13 +31313,13 @@
         <v>109</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I192" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J192" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K192" t="n">
         <v>90</v>
@@ -31456,16 +31456,16 @@
         <v>0</v>
       </c>
       <c r="B193" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="C193" t="n">
-        <v>180</v>
+        <v>180.2</v>
       </c>
       <c r="D193" t="n">
-        <v>66</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E193" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F193" t="n">
         <v>2661</v>
@@ -31474,13 +31474,13 @@
         <v>136</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I193" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J193" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K193" t="n">
         <v>110</v>
@@ -31617,16 +31617,16 @@
         <v>0</v>
       </c>
       <c r="B194" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="C194" t="n">
-        <v>180</v>
+        <v>180.2</v>
       </c>
       <c r="D194" t="n">
-        <v>66</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E194" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F194" t="n">
         <v>2579</v>
@@ -31635,10 +31635,10 @@
         <v>97</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="I194" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J194" t="n">
         <v>23</v>
@@ -31778,16 +31778,16 @@
         <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="C195" t="n">
-        <v>183</v>
+        <v>183.1</v>
       </c>
       <c r="D195" t="n">
-        <v>66</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E195" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F195" t="n">
         <v>2563</v>
@@ -31796,10 +31796,10 @@
         <v>109</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I195" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J195" t="n">
         <v>9</v>
@@ -31939,16 +31939,16 @@
         <v>-2</v>
       </c>
       <c r="B196" t="n">
-        <v>104</v>
+        <v>104.3</v>
       </c>
       <c r="C196" t="n">
-        <v>188</v>
+        <v>188.8</v>
       </c>
       <c r="D196" t="n">
-        <v>67</v>
+        <v>67.2</v>
       </c>
       <c r="E196" t="n">
-        <v>56</v>
+        <v>56.2</v>
       </c>
       <c r="F196" t="n">
         <v>2912</v>
@@ -31957,13 +31957,13 @@
         <v>141</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>3.78</v>
       </c>
       <c r="I196" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J196" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K196" t="n">
         <v>114</v>
@@ -32100,16 +32100,16 @@
         <v>-1</v>
       </c>
       <c r="B197" t="n">
-        <v>104</v>
+        <v>104.3</v>
       </c>
       <c r="C197" t="n">
-        <v>188</v>
+        <v>188.8</v>
       </c>
       <c r="D197" t="n">
-        <v>67</v>
+        <v>67.2</v>
       </c>
       <c r="E197" t="n">
-        <v>57</v>
+        <v>57.5</v>
       </c>
       <c r="F197" t="n">
         <v>3034</v>
@@ -32118,13 +32118,13 @@
         <v>141</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>3.78</v>
       </c>
       <c r="I197" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J197" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K197" t="n">
         <v>114</v>
@@ -32261,16 +32261,16 @@
         <v>-2</v>
       </c>
       <c r="B198" t="n">
-        <v>104</v>
+        <v>104.3</v>
       </c>
       <c r="C198" t="n">
-        <v>188</v>
+        <v>188.8</v>
       </c>
       <c r="D198" t="n">
-        <v>67</v>
+        <v>67.2</v>
       </c>
       <c r="E198" t="n">
-        <v>56</v>
+        <v>56.2</v>
       </c>
       <c r="F198" t="n">
         <v>2935</v>
@@ -32279,13 +32279,13 @@
         <v>141</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>3.78</v>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J198" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K198" t="n">
         <v>114</v>
@@ -32422,16 +32422,16 @@
         <v>-1</v>
       </c>
       <c r="B199" t="n">
-        <v>104</v>
+        <v>104.3</v>
       </c>
       <c r="C199" t="n">
-        <v>188</v>
+        <v>188.8</v>
       </c>
       <c r="D199" t="n">
-        <v>67</v>
+        <v>67.2</v>
       </c>
       <c r="E199" t="n">
-        <v>57</v>
+        <v>57.5</v>
       </c>
       <c r="F199" t="n">
         <v>3042</v>
@@ -32440,13 +32440,13 @@
         <v>141</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>3.78</v>
       </c>
       <c r="I199" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J199" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K199" t="n">
         <v>114</v>
@@ -32583,16 +32583,16 @@
         <v>-2</v>
       </c>
       <c r="B200" t="n">
-        <v>104</v>
+        <v>104.3</v>
       </c>
       <c r="C200" t="n">
-        <v>188</v>
+        <v>188.8</v>
       </c>
       <c r="D200" t="n">
-        <v>67</v>
+        <v>67.2</v>
       </c>
       <c r="E200" t="n">
-        <v>56</v>
+        <v>56.2</v>
       </c>
       <c r="F200" t="n">
         <v>3045</v>
@@ -32601,13 +32601,13 @@
         <v>130</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I200" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J200" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K200" t="n">
         <v>162</v>
@@ -32744,16 +32744,16 @@
         <v>-1</v>
       </c>
       <c r="B201" t="n">
-        <v>104</v>
+        <v>104.3</v>
       </c>
       <c r="C201" t="n">
-        <v>188</v>
+        <v>188.8</v>
       </c>
       <c r="D201" t="n">
-        <v>67</v>
+        <v>67.2</v>
       </c>
       <c r="E201" t="n">
-        <v>57</v>
+        <v>57.5</v>
       </c>
       <c r="F201" t="n">
         <v>3157</v>
@@ -32762,13 +32762,13 @@
         <v>130</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="I201" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J201" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K201" t="n">
         <v>162</v>
@@ -32905,16 +32905,16 @@
         <v>-1</v>
       </c>
       <c r="B202" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="C202" t="n">
-        <v>188</v>
+        <v>188.8</v>
       </c>
       <c r="D202" t="n">
-        <v>68</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E202" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="F202" t="n">
         <v>2952</v>
@@ -32923,13 +32923,13 @@
         <v>141</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>3.78</v>
       </c>
       <c r="I202" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J202" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K202" t="n">
         <v>114</v>
@@ -33066,16 +33066,16 @@
         <v>-1</v>
       </c>
       <c r="B203" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="C203" t="n">
-        <v>188</v>
+        <v>188.8</v>
       </c>
       <c r="D203" t="n">
-        <v>68</v>
+        <v>68.8</v>
       </c>
       <c r="E203" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="F203" t="n">
         <v>3049</v>
@@ -33084,13 +33084,13 @@
         <v>141</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>3.78</v>
       </c>
       <c r="I203" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J203" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K203" t="n">
         <v>160</v>
@@ -33227,16 +33227,16 @@
         <v>-1</v>
       </c>
       <c r="B204" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="C204" t="n">
-        <v>188</v>
+        <v>188.8</v>
       </c>
       <c r="D204" t="n">
-        <v>68</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E204" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="F204" t="n">
         <v>3012</v>
@@ -33245,13 +33245,13 @@
         <v>173</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>3.58</v>
       </c>
       <c r="I204" t="n">
-        <v>2</v>
+        <v>2.87</v>
       </c>
       <c r="J204" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K204" t="n">
         <v>134</v>
@@ -33388,16 +33388,16 @@
         <v>-1</v>
       </c>
       <c r="B205" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="C205" t="n">
-        <v>188</v>
+        <v>188.8</v>
       </c>
       <c r="D205" t="n">
-        <v>68</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E205" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="F205" t="n">
         <v>3217</v>
@@ -33406,10 +33406,10 @@
         <v>145</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J205" t="n">
         <v>23</v>
@@ -33549,16 +33549,16 @@
         <v>-1</v>
       </c>
       <c r="B206" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="C206" t="n">
-        <v>188</v>
+        <v>188.8</v>
       </c>
       <c r="D206" t="n">
-        <v>68</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E206" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="F206" t="n">
         <v>3062</v>
@@ -33567,13 +33567,13 @@
         <v>141</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>3.78</v>
       </c>
       <c r="I206" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J206" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K206" t="n">
         <v>114</v>
